--- a/Calibration1/Calibration1_results/Calibration_Average_RSSI/Calibration_diagram_formulas.xlsx
+++ b/Calibration1/Calibration1_results/Calibration_Average_RSSI/Calibration_diagram_formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\Enchipsdatorer\LoRa-Exjobb\Calibration1\Calibration1_results\Calibration_Average_RSSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B5DB5-5316-4067-A513-C0661BD63B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8544105E-21F8-4730-8397-7A450C798686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR0" sheetId="13" r:id="rId1"/>
@@ -274,6 +274,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -348,6 +373,48 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.2895888013998244E-2"/>
+                  <c:y val="-0.48435841353164188"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.3238 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t> - 21.35</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -663,7 +730,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E1E-44E4-8DEC-718D8233416B}"/>
+              <c16:uniqueId val="{00000001-55BD-4F7D-973D-8B403FBC1D66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55BD-4F7D-973D-8B403FBC1D66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -675,31 +801,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1273664304"/>
-        <c:axId val="1273664960"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1273664304"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-60"/>
+          <c:max val="-65"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -737,12 +926,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273664960"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1273664960"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -752,17 +942,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -781,7 +1029,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -800,11 +1048,9 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273664304"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -873,6 +1119,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -947,6 +1218,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14164632545931757"/>
+                  <c:y val="-0.46094852726742491"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2794 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 16.067</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1262,7 +1581,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1084-4FF9-ADD7-6E74AA6E8BE8}"/>
+              <c16:uniqueId val="{00000001-4F7D-4745-9B73-C101A37625AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F7D-4745-9B73-C101A37625AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1274,32 +1652,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1375421480"/>
-        <c:axId val="1375418528"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1375421480"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
-          <c:min val="-100"/>
+          <c:min val="-90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1337,12 +1777,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375418528"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1375418528"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -1352,17 +1793,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1381,7 +1880,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1400,8 +1899,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375421480"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1471,6 +1970,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1545,6 +2069,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4357611548556435E-2"/>
+                  <c:y val="-0.46270450568678917"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2808</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> × RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 15.69</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1864,6 +2436,65 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD1C-42A0-8B9E-F5847806EB68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1880,24 +2511,86 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
-          <c:min val="-100"/>
+          <c:min val="-90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1938,6 +2631,7 @@
         <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1200259600"/>
@@ -1950,17 +2644,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1979,7 +2731,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1999,7 +2751,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1200261240"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2069,6 +2821,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2143,6 +2920,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4357611548556435E-2"/>
+                  <c:y val="-0.46270450568678917"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.3254 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 21.34</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2458,7 +3283,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D12D-4CB7-A3F5-3FA6CA27CEFA}"/>
+              <c16:uniqueId val="{00000001-1547-44B5-883C-3BEE4CBD03FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1547-44B5-883C-3BEE4CBD03FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2470,31 +3354,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1196803920"/>
-        <c:axId val="1196804248"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1196803920"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-60"/>
+          <c:max val="-65"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2532,12 +3479,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196804248"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1196804248"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -2547,17 +3495,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2576,7 +3582,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2595,8 +3601,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196803920"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2666,6 +3672,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2740,6 +3771,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14597900262467192"/>
+                  <c:y val="-0.46305701370662"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.3279 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 21.414</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3055,7 +4134,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45E4-42FD-8998-54084F6E038E}"/>
+              <c16:uniqueId val="{00000001-54BF-42A1-9428-5EF62C951860}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54BF-42A1-9428-5EF62C951860}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3067,31 +4205,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1273674472"/>
-        <c:axId val="1273674800"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1273674472"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-60"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3129,12 +4330,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273674800"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1273674800"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -3144,17 +4346,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3173,7 +4433,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3192,8 +4452,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273674472"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3263,6 +4523,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3337,6 +4622,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15456649168853892"/>
+                  <c:y val="-0.46057706328375619"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.3077 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 19.833</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3652,7 +4985,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB36-4D74-84B5-D3D822F22985}"/>
+              <c16:uniqueId val="{00000001-E118-455B-85CD-6C2D578FBBB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E118-455B-85CD-6C2D578FBBB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3664,32 +5056,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1200263536"/>
-        <c:axId val="1200261896"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1200263536"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-60"/>
-          <c:min val="-100"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3727,12 +5181,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200261896"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1200261896"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -3742,17 +5197,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3771,7 +5284,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3790,8 +5303,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200263536"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3861,499 +5374,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'DR4'!$B$3:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>-64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-75.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-78.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-86</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-76.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-83.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-78.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-76.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-87.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-84.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-82.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-79</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-76.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-81</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-80.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-85</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-82.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-79.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-79.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-81.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-84</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-90</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-91.2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-89</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-89.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-85.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-81.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'DR4'!$C$3:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE15-4B32-8BD4-4F5267C9EA2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="519608064"/>
-        <c:axId val="519606752"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="519608064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="-60"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4365,143 +5392,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR4</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="519606752"/>
-        <c:crossesAt val="-2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="519606752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="519608064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4576,6 +5473,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15293722659667541"/>
+                  <c:y val="-0.45973716827063282"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.3028 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 19.287</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4608,148 +5553,148 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DR5'!$B$3:$B$46</c:f>
+              <c:f>'DR4'!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>-63</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-64</c:v>
+                  <c:v>-65.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-63.6</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-68.599999999999994</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-73</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-72</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-76</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-83.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-78.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-76.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-87.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-84.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-82.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-76.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-80.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-79.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>-75.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-73</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-86.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-78.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="36">
+                  <c:v>-81.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>-84</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>-78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-72.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-75.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-76.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-83.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-91.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-89.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-85.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>-81.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-77.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-75.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-74</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-76.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-84</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-82</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-79</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-78</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-87.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-90.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-88.2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-88</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-85</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-81.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DR5'!$C$3:$C$46</c:f>
+              <c:f>'DR4'!$C$3:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -4891,7 +5836,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A014-40C3-92B5-3CAA523D4558}"/>
+              <c16:uniqueId val="{00000001-793C-4659-B4B5-4C477B88309E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-793C-4659-B4B5-4C477B88309E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4903,32 +5907,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1273383568"/>
-        <c:axId val="1273384552"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1273383568"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-60"/>
-          <c:min val="-100"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4966,12 +6032,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273384552"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1273384552"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -4981,17 +6048,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5010,7 +6135,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5029,8 +6154,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273383568"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5085,7 +6210,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -5100,6 +6225,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5174,6 +6324,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12173950131233596"/>
+                  <c:y val="-0.46497739865850102"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2952 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 18.428</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5206,148 +6404,148 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DR6'!$B$3:$B$46</c:f>
+              <c:f>'DR5'!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>-62</c:v>
+                  <c:v>-63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-63</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-61.4</c:v>
+                  <c:v>-63.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-67.2</c:v>
+                  <c:v>-68.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-72.2</c:v>
+                  <c:v>-73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-71</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75.599999999999994</c:v>
+                  <c:v>-76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-73</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-79.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-75</c:v>
+                  <c:v>-75.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-72</c:v>
+                  <c:v>-73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-75.2</c:v>
+                  <c:v>-77</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>-86.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-72.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>-83.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-76</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-70.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-77</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-79.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-77.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-73.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-74.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-83.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>-81.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-77.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-75.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-76.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-83.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-74.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-74.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-72.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-80.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-79</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-79.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-77.8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-78.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-81.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-87.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-90.2</c:v>
+                  <c:v>-90.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-88.6</c:v>
+                  <c:v>-88.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-90</c:v>
+                  <c:v>-88</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-84.2</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-80.599999999999994</c:v>
+                  <c:v>-81.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DR6'!$C$3:$C$46</c:f>
+              <c:f>'DR5'!$C$3:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5489,7 +6687,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CA7-46DE-B646-C15D315C3C5F}"/>
+              <c16:uniqueId val="{00000001-2DDB-49D0-BBD2-D2E2322BEFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DDB-49D0-BBD2-D2E2322BEFD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5501,31 +6758,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1272429640"/>
-        <c:axId val="1272431608"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1272429640"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-60"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5563,12 +6883,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272431608"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1272431608"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -5578,17 +6899,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5607,7 +6986,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5626,8 +7005,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1272429640"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5682,7 +7061,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -5697,6 +7076,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5771,6 +7175,54 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4357611548556435E-2"/>
+                  <c:y val="-0.46270450568678917"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2832 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 17.128</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5803,148 +7255,148 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DR7'!$B$3:$B$46</c:f>
+              <c:f>'DR6'!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>-61</c:v>
+                  <c:v>-62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-62</c:v>
+                  <c:v>-63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-61</c:v>
+                  <c:v>-61.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-66</c:v>
+                  <c:v>-67.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-71.2</c:v>
+                  <c:v>-72.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75</c:v>
+                  <c:v>-75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-73.8</c:v>
+                  <c:v>-73</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-79.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-74.2</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-70.8</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-75.8</c:v>
+                  <c:v>-75.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-83.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-70.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-77</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>-79.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-73.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-75</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>-79.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-76.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-80.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-80.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-71</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-73</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>-74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-83.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-83.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-72.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>-75</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>-83.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-81.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-76.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-71.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-76</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>-82.8</c:v>
+                  <c:v>-80.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-79</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-84</c:v>
+                  <c:v>-83</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-80.2</c:v>
+                  <c:v>-79.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-75.2</c:v>
+                  <c:v>-78</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-77.400000000000006</c:v>
+                  <c:v>-77.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-80</c:v>
+                  <c:v>-78.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-83</c:v>
+                  <c:v>-81.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-87</c:v>
+                  <c:v>-87.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-90.6</c:v>
+                  <c:v>-90.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-88</c:v>
+                  <c:v>-88.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-89.4</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-85</c:v>
+                  <c:v>-84.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-80</c:v>
+                  <c:v>-80.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DR7'!$C$3:$C$46</c:f>
+              <c:f>'DR6'!$C$3:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6086,7 +7538,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C1B-43DA-8810-1360BAD0E08D}"/>
+              <c16:uniqueId val="{00000001-7063-4F02-BC96-1682FFDBF779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7063-4F02-BC96-1682FFDBF779}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6098,32 +7609,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1279673000"/>
-        <c:axId val="1279673328"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1279673000"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-55"/>
-          <c:min val="-100"/>
+          <c:max val="-60"/>
+          <c:min val="-95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6161,12 +7734,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279673328"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1279673328"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -6176,17 +7750,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6205,7 +7837,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6224,8 +7856,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279673000"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6280,7 +7912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -6295,6 +7927,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6369,6 +8026,905 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4357611548556435E-2"/>
+                  <c:y val="-0.46270450568678917"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2707 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 16.23</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR7'!$B$3:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-71.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-73.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-74.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-70.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-75.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-83.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-83.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-71.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-80.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-75.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-90.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-89.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR7'!$C$3:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-073A-4319-B490-D2D52811C618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-073A-4319-B490-D2D52811C618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1200261240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-60"/>
+          <c:min val="-95"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200259600"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1200259600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>DR8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17447331583552056"/>
+                  <c:y val="-0.46314851268591428"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>Distance = -0.2854 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="sv-SE" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>× RSSI</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>- 17.045</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6684,7 +9240,66 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB28-47F8-A186-441B1272A520}"/>
+              <c16:uniqueId val="{00000001-1635-4AE6-AF3C-342D9A31A22C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>erie 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DR10'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DR10'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1635-4AE6-AF3C-342D9A31A22C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6696,32 +9311,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1368364632"/>
-        <c:axId val="1368368240"/>
+        <c:axId val="1200261240"/>
+        <c:axId val="1200259600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1368364632"/>
+        <c:axId val="1200261240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
-          <c:min val="-100"/>
+          <c:min val="-90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>RSSI (dBm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42843285214348203"/>
+              <c:y val="0.87199074074074079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6759,12 +9436,13 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1368368240"/>
+        <c:crossAx val="1200259600"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1368368240"/>
+        <c:axId val="1200259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -6774,17 +9452,75 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.34024679206765818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6803,7 +9539,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6822,8 +9558,8 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1368364632"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1200261240"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -12999,26 +15735,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagram 6">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6811B68-CE9E-41C0-9462-48F144037F85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C40ABC4-DCA3-42FB-B21E-01CEF2DDC0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13040,26 +15778,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD846AEC-A44E-4B74-A508-E9213ADB6EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B09E91D-CE57-4648-9D3C-DA17D35BC2A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13122,26 +15862,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC4543D-B035-4CB7-A019-1E050150AAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673C84AE-83EB-4DD7-ADFA-5D0665E29868}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13163,26 +15905,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF7A4CA-1C40-4F24-92E1-F2A8CC7CB572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A3E909-4993-4D90-8ADF-736FFFC52D65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13204,26 +15948,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECEA223-7A61-487C-8958-333AE8E3AF61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D463783-4BCF-4BBA-996E-6016A9D77CAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13245,26 +15991,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5754B8-7D3B-4504-9814-F702ED8EA983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AB26F3-5217-4E4A-B899-CE04907DC3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13286,26 +16034,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A42A5C-1A17-4085-82E7-992EA4D55252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798682C3-E5ED-4506-A040-47325205278D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13326,27 +16076,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B00ED32-2073-4B2E-8D0C-00AD57EE5D09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE441C-F346-43D0-BFFF-5B001808E4E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13367,27 +16119,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A1FE6-0875-49D8-BAD9-2290EDF63493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A264C5-AB9F-477E-804A-A093E4078D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13409,26 +16163,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4B8B48-4342-44D1-A52D-8AE3BDB81B29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2E054E-FCBC-45AD-B8D5-E0A930594021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13974,8 +16730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465C82EB-A2F8-4EA5-B89A-C51B8913E8DE}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14369,7 +17125,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14762,8 +17518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D27A1D-0F50-4247-A90A-8EBC07EC4F1A}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15157,7 +17913,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z43" sqref="Z43"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15551,7 +18307,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15945,7 +18701,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16339,7 +19095,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16733,7 +19489,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17127,7 +19883,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17521,7 +20277,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17915,7 +20671,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C46"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
